--- a/biology/Zoologie/Association_européenne_des_zoos_et_aquariums/Association_européenne_des_zoos_et_aquariums.xlsx
+++ b/biology/Zoologie/Association_européenne_des_zoos_et_aquariums/Association_européenne_des_zoos_et_aquariums.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_europ%C3%A9enne_des_zoos_et_aquariums</t>
+          <t>Association_européenne_des_zoos_et_aquariums</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association européenne des zoos et aquariums (souvent abrégé en EAZA de l'anglais European Association of Zoos and Aquaria) est une association de parcs zoologiques et d'aquariums européens ayant pour objectif de promouvoir la coopération entre établissements zoologiques dans le but de préserver les espèces animales.
 Créée en 1988 entre les pays de la communauté européenne de l'époque, l'association a acquis son véritable statut européen en 1992, avec la chute du mur de Berlin, et devint alors l'EAZA. Elle regroupe aujourd'hui 296 membres permanents répartis dans 34 pays européens, ainsi que quelques membres associés situés dans des pays limitrophes de l'Europe, tels Israël, la Turquie, le Koweït ou les Émirats arabes unis.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_europ%C3%A9enne_des_zoos_et_aquariums</t>
+          <t>Association_européenne_des_zoos_et_aquariums</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_europ%C3%A9enne_des_zoos_et_aquariums</t>
+          <t>Association_européenne_des_zoos_et_aquariums</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,12 +554,14 @@
           <t>Gouvernance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Son siège se trouve aux Pays-Bas, à Amsterdam, dans le quartier du Plantage, au sein du zoo Artis.
-Son bureau exécutif (executive office, chargé d'administrer l'association[1]) est dirigé depuis octobre 2014 par Myfanwy Griffith, titulaire d'un master en écologie comportementale.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son siège se trouve aux Pays-Bas, à Amsterdam, dans le quartier du Plantage, au sein du zoo Artis.
+Son bureau exécutif (executive office, chargé d'administrer l'association) est dirigé depuis octobre 2014 par Myfanwy Griffith, titulaire d'un master en écologie comportementale.
 Le comité exécutif (executive committee) est quant à lui élu tous les quatre ans parmi les membres permanents de l'association. Le comité actuel est dirigé par Thomas Kauffels, de l'Opel Zoo (Allemagne), depuis 2016.
-Évolution de la composition du comité exécutif</t>
+</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Association_europ%C3%A9enne_des_zoos_et_aquariums</t>
+          <t>Association_européenne_des_zoos_et_aquariums</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Campagnes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Depuis 2000, l'EAZA organise, avec la collaboration des zoos membres de l'EAZA, des campagnes de soutien aux organisations de conservation in situ qui ont pour but de récolter des fonds pour financer des actions de protection de la nature sur le terrain. Ces campagnes ont porté sur les thèmes suivants :
 Campagne EAZA 2000/2001 : Viande de brousse.
@@ -583,12 +601,12 @@
 Campagne EAZA 2005/2006 : Rhinocéros.
 Campagne EAZA 2006/2007 : Madagascar.
 Campagne EAZA 2007/2008 : Amphibiens.
-Campagne EAZA 2008/2009 : Carnivores européens[4]. Ce thème est étendu pour la campagne 2009/2010 aux rapaces et aux mammifères marins.
-Campagne EAZA 2011 : Grands singes[5].
+Campagne EAZA 2008/2009 : Carnivores européens. Ce thème est étendu pour la campagne 2009/2010 aux rapaces et aux mammifères marins.
+Campagne EAZA 2011 : Grands singes.
 Campagne EAZA 2012-2013 : Asie du Sud-Est.
-Campagne EAZA 2014-2015 : Pole to Pole (Espèces polaires)[6].
-Campagne EAZA 2016-2017 : Let it Grow (Biodiversité locale)[7].
-Campagne EAZA 2018-2019 : Silent Forest (Oiseaux chanteurs d'Asie du Sud-Est)[8].</t>
+Campagne EAZA 2014-2015 : Pole to Pole (Espèces polaires).
+Campagne EAZA 2016-2017 : Let it Grow (Biodiversité locale).
+Campagne EAZA 2018-2019 : Silent Forest (Oiseaux chanteurs d'Asie du Sud-Est).</t>
         </is>
       </c>
     </row>
